--- a/04.Lecture/lec04.xlsx
+++ b/04.Lecture/lec04.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance\04.Lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2440FB-028A-417E-8276-889309FFAC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCA722-994B-4E37-98F1-FD6AE87D372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16212" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task01" sheetId="1" r:id="rId1"/>
     <sheet name="Task02" sheetId="2" r:id="rId2"/>
+    <sheet name="Task03" sheetId="3" r:id="rId3"/>
+    <sheet name="Task04" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>В городе 85% автомобилей зеленые и 15% синие. Свидетель ДТП ночью идентифицировал автомобиль как синий. Однако известно, что в сумерках человек правильно идентифицирует цвет в 80% случаев. Вопрос: какова вероятность того, что автомобиль-нарушитель был действительно синий?</t>
   </si>
@@ -55,12 +57,6 @@
     <t>P(A|B)</t>
   </si>
   <si>
-    <t>A - цвет авто</t>
-  </si>
-  <si>
-    <t>B - ночное зрение</t>
-  </si>
-  <si>
     <t>Если известны условные вероятности поведения акции в разных состояниях экономики, и известно, что акция выросла, какова вероятность, что состояние экономики позитивное?</t>
   </si>
   <si>
@@ -94,25 +90,193 @@
     <t>Условная вероятность</t>
   </si>
   <si>
-    <t>Позитив</t>
-  </si>
-  <si>
-    <t>Рост при поз</t>
-  </si>
-  <si>
-    <t>Акция выросла</t>
+    <t>Киоск занимается продажей газет. Каждое утро он покупает газеты по цене $0,7 за штуку и продает их в течение дня по $1,0. Пусть известно, что вероятности продать определенное количество газет следующие:</t>
+  </si>
+  <si>
+    <t>Определить оптимальный размер закупки газет утром.</t>
+  </si>
+  <si>
+    <t>Вероятность продать данное количество</t>
+  </si>
+  <si>
+    <t>Закупочная цена за шт. $</t>
+  </si>
+  <si>
+    <t>Конечная цена за шт. $</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Закупка газет шт.</t>
+  </si>
+  <si>
+    <t>матожидание                  \            Количество газет</t>
+  </si>
+  <si>
+    <t>Теперь графически можно определить оптимум с максимальной прибылью = 10 газет</t>
+  </si>
+  <si>
+    <t>Этот эффект диверсификации можно продемонстрировать с помощью Excel, рассчитав доходность и риск для портфеля из двух активов (акций General Electric и Vertex).</t>
+  </si>
+  <si>
+    <t>Портфель из 2 активов</t>
+  </si>
+  <si>
+    <t>Все акции General Electric</t>
+  </si>
+  <si>
+    <t>Все акции Vertex</t>
+  </si>
+  <si>
+    <t>Исходные данные</t>
+  </si>
+  <si>
+    <t>Доходность General Electric (годовых!)</t>
+  </si>
+  <si>
+    <t>Доходность Vertex(годовых!)</t>
+  </si>
+  <si>
+    <t>Коэффициент корреляции между доходностями</t>
+  </si>
+  <si>
+    <t>Волатильность General Electric (годовых!)</t>
+  </si>
+  <si>
+    <t>Волатильность Vertex (годовых!)</t>
+  </si>
+  <si>
+    <t>Формулы Марковыица:</t>
+  </si>
+  <si>
+    <t>Доходность портфеля GE-Vertex</t>
+  </si>
+  <si>
+    <t>Волотильность портфеля GE-Vertex</t>
+  </si>
+  <si>
+    <t>Полноя вероятность правильной идентификации света =  цвет синий при уловии правда * цвет синий при условии ложь = P(A)*P(B1|A) + P(A)*P(B2|A)</t>
+  </si>
+  <si>
+    <t>P(A)*P(B|A)/P(B)</t>
+  </si>
+  <si>
+    <t>Синий</t>
+  </si>
+  <si>
+    <t>Цвет синий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Случайное событие </t>
+  </si>
+  <si>
+    <t>Идентификация не правильная | цвет синий</t>
+  </si>
+  <si>
+    <t>Идентификация правильная |  синий</t>
+  </si>
+  <si>
+    <t>Цвет синий | идентификация правилная</t>
+  </si>
+  <si>
+    <t>P(B1|А)</t>
+  </si>
+  <si>
+    <t>P(B2|A)</t>
+  </si>
+  <si>
+    <t>Идентификация правильная</t>
+  </si>
+  <si>
+    <t>Ответ: вероятность того что синий цвет авто при условии правильной идентификации</t>
+  </si>
+  <si>
+    <t>Решение:</t>
+  </si>
+  <si>
+    <t>Полная вероятность роста</t>
+  </si>
+  <si>
+    <t>Случайное событие</t>
+  </si>
+  <si>
+    <t>Форм.вероят</t>
+  </si>
+  <si>
+    <t>Вероятность</t>
+  </si>
+  <si>
+    <t>Рости при позитиве</t>
+  </si>
+  <si>
+    <t>Рости при экономике -</t>
+  </si>
+  <si>
+    <t>Рости при экономике +</t>
+  </si>
+  <si>
+    <t>Экономика +</t>
+  </si>
+  <si>
+    <t>Экономика -</t>
+  </si>
+  <si>
+    <t>Экономика =</t>
+  </si>
+  <si>
+    <t>Рости если экономика =</t>
+  </si>
+  <si>
+    <t>А+</t>
+  </si>
+  <si>
+    <t>А=</t>
+  </si>
+  <si>
+    <t>А-</t>
+  </si>
+  <si>
+    <t>P(B1|A+)</t>
+  </si>
+  <si>
+    <t>P(B2|A=)</t>
+  </si>
+  <si>
+    <t>P(B3|A+)</t>
+  </si>
+  <si>
+    <t>P(A+|B1)</t>
+  </si>
+  <si>
+    <t>P(A+)*P(B1|A+)/P(B)</t>
+  </si>
+  <si>
+    <t>Ответ: вероятность акции вырасти при условии позитивной экономики 51%</t>
+  </si>
+  <si>
+    <t>Ответ: максимальная прибыль при 10 газетах</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,20 +315,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -180,6 +354,1190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Матожидание</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> прибыли</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task03!$B$6:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task03!$B$7:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4200000000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.81000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.4499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1199999999999988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.8099999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CE3-4A88-B9A9-97569EE5B630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488421791"/>
+        <c:axId val="346654063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488421791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> газет шт.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46563522554849723"/>
+              <c:y val="0.9193070381213897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346654063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="346654063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Прибыль </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>$</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488421791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C89FAC-86EF-5D14-19F7-3D2A247202B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,230 +1814,379 @@
     <col min="1" max="1" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C7*C6</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
+        <f>(1-C6)*(1-C7)</f>
+        <v>0.16999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C10" s="7">
+        <f>C8+C9</f>
+        <v>0.28999999999999992</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="1">
-        <f>C5*B5+(1-B5)*(1-C5)</f>
-        <v>0.28999999999999992</v>
-      </c>
-      <c r="E5" s="1">
-        <f>B5*C5/D5</f>
+      <c r="C11" s="7">
+        <f>C6*C7/C10</f>
         <v>0.41379310344827597</v>
       </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11">
+        <f>C11</f>
+        <v>0.41379310344827597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD96FBAC-9B57-45D8-AE2A-5CCC13B6AE69}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D5" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B7</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B10</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1">
+        <f>D4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1">
+        <f>D7</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1">
+        <f>D10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C21" s="1">
         <f>B4*D4+B7*D7+B10*D10</f>
         <v>0.35</v>
       </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5">
+        <f>C15*C18/C21</f>
+        <v>0.51428571428571435</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -689,4 +2196,409 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F4C9D05-BC6B-4A20-866A-480FE93E22FC}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>11</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3">
+        <v>17</v>
+      </c>
+      <c r="O6" s="3">
+        <v>18</v>
+      </c>
+      <c r="P6" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>SUMPRODUCT(B8:Q8,B9:Q9)</f>
+        <v>2.4200000000000013</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="dataTable" ref="B7:Q7" dt2D="0" dtr="1" r1="B5"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.7900000000000009</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0600000000000005</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.2900000000000005</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.5400000000000005</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.4200000000000013</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.820000000000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.36</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.81000000000000061</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.2000000000000017</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-0.4499999999999999</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-1.1199999999999988</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-1.8099999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <f>MIN(B6,$B$5)*$B$3-$B$5*$B$4</f>
+        <v>-3.3999999999999986</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:Q9" si="0">MIN(C6,$B$5)*$B$3-$B$5*$B$4</f>
+        <v>-2.3999999999999986</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.3999999999999986</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1D97DF-0B02-470A-A7B7-FEDB27D0FF6A}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
+        <v>-0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7">
+        <f>B4*B8+B5*B9</f>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7">
+        <f>SQRT(B4^2*B13^2+B5^2*B14^2+2*B4*B5*B13*B14*B11)</f>
+        <v>0.32430955089235347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>